--- a/seed_data/conflictsSeed.xlsx
+++ b/seed_data/conflictsSeed.xlsx
@@ -5,37 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b8ec6da2946e4b6/Documents/School/Year Five/Final Year Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bushie\Desktop\Projects\ogc-features-server\seed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_F25DC773A252ABDACC10483B711D65505ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B970A4CA-597C-4483-8A15-8A89D9B62E50}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B643A90B-9299-49EC-AE7F-7E63320016EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6315" yWindow="5205" windowWidth="18000" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conflicts" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="157">
   <si>
     <t>https://en.wikipedia.org/wiki/South_Ossetia_war_(1991%E2%80%931992)</t>
   </si>
@@ -385,9 +375,6 @@
     <t>https://en.wikipedia.org/wiki/Libyan_Crisis_(2011%E2%80%93present)</t>
   </si>
   <si>
-    <t>LIB</t>
-  </si>
-  <si>
     <t>Libyan Crisis (2011–present)</t>
   </si>
   <si>
@@ -485,6 +472,30 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Boko_Haram_insurgency</t>
+  </si>
+  <si>
+    <t>U.S. January Breach &amp; Riots</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Dissident Irish republican campaign</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Dissident_Irish_republican_campaign</t>
+  </si>
+  <si>
+    <t>Domestic Terrorism</t>
+  </si>
+  <si>
+    <t>Myanmar civil war (2021–present)</t>
+  </si>
+  <si>
+    <t>LBY</t>
   </si>
 </sst>
 </file>
@@ -834,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF26FFBC-1DD4-4EB6-ACC4-9C3933F3CE2B}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,22 +861,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -873,17 +884,17 @@
         <v>40617</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F2" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>1b7d8ba4-012d-d7bb-107c-90c020be1ca4</v>
+        <f t="shared" ref="F2:F33" ca="1" si="0">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
+        <v>243830ec-f6ac-3873-efcd-1582426ba4a3</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -891,17 +902,17 @@
         <v>41898</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F3" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>f510c00e-9391-726a-fba1-19c669d346ea</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>e460ceaf-d76f-0454-07a5-56bc07f2671e</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -909,17 +920,17 @@
         <v>41684</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F4" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>0918c92b-d7f1-befc-50cb-962e82c5eaf0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>65075ffb-0a2f-041d-2efc-fb48194f02d4</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -930,17 +941,17 @@
         <v>44438</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>6fe31773-1cc9-4ad8-3999-543ab8ed90eb</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2e96a8fc-0b64-343e-cb45-c16a386b0e11</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -948,17 +959,17 @@
         <v>17667</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F6" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>65ace23b-bef6-130e-3fb7-826a50ad3d36</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>617914a8-b838-a1d3-3266-ce5cf252b4d2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -969,17 +980,17 @@
         <v>19542</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F7" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>166bcff2-a76c-1ba2-f783-f2fbaa5bcf94</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>52ed7bfc-4361-2313-2c93-ba86361965a6</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -987,17 +998,17 @@
         <v>32193</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F8" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>87a100e1-e679-36f2-c014-5e3a40c7d363</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>094bc28a-353b-ae50-19bf-ef7ce056f9fc</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1005,17 +1016,17 @@
         <v>40601</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="E9" t="s">
         <v>115</v>
       </c>
       <c r="F9" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>18ae3f86-ea97-35b0-3af1-6dd41eab47b7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>cea2a9a5-094e-a4f6-3b1b-e662c38f93a1</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1035,8 +1046,8 @@
         <v>113</v>
       </c>
       <c r="F10" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>6400bab6-9d0d-538a-7abf-b0a5e480556c</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>ef7a6984-624c-363c-28b1-3ba112f38bc4</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1056,8 +1067,8 @@
         <v>110</v>
       </c>
       <c r="F11" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>437d638e-957e-d789-b4fe-ecd0e6a996f6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>341a023b-0a5e-5087-c94f-31c951c879e0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1074,8 +1085,8 @@
         <v>107</v>
       </c>
       <c r="F12" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>a1070103-e466-1fba-ab5c-44c048aeb211</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5769e74b-c8e0-d292-42ce-bca5afead67a</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1092,8 +1103,8 @@
         <v>104</v>
       </c>
       <c r="F13" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>654c7a93-77a9-5600-aff4-dc8d398ec461</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>b6ab8c4a-3a39-c5d0-591b-762b2ec3b6e0</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1110,8 +1121,8 @@
         <v>101</v>
       </c>
       <c r="F14" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>cc9bceac-4418-dd77-84f8-ddca6f889f07</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8e2c5ba9-0428-cf76-a5fe-e5b8a15cee78</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1128,8 +1139,8 @@
         <v>98</v>
       </c>
       <c r="F15" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>0d1a2a1f-777e-7881-c895-74e4363b57f0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3fdb9604-00ae-63fa-26a8-59bce9ac5356</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1146,8 +1157,8 @@
         <v>95</v>
       </c>
       <c r="F16" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>04c7c435-0cdc-7135-f3e0-93d8a6349f96</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8812cf00-7fbc-c0d3-2f7f-033e41f1d06a</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1164,8 +1175,8 @@
         <v>92</v>
       </c>
       <c r="F17" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>f6e0bf9b-64c5-c44f-7c24-c2af66be3b19</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>db91e4f4-deaa-81c7-9a6f-f13091b6cb2d</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1185,8 +1196,8 @@
         <v>89</v>
       </c>
       <c r="F18" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>9d3be974-246f-880f-598e-fdee9f28d030</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7aff5d8f-a388-789d-027b-79e7e8157dfe</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1206,8 +1217,8 @@
         <v>86</v>
       </c>
       <c r="F19" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>88b26e6f-9c6a-ff5c-65f0-bef868c141ee</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5e584ac8-952b-6c2f-c44d-5ef7636122d2</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1227,8 +1238,8 @@
         <v>84</v>
       </c>
       <c r="F20" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>cbe8e85b-431e-9cad-be29-48ee6c23b6e7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>ef37ab5a-4209-62c0-ee5e-5b6bfee87679</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1245,8 +1256,8 @@
         <v>81</v>
       </c>
       <c r="F21" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>5639c4d8-6bf8-3d60-34f4-3762d6434253</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>a5a3dcf8-d302-a9df-c74f-8837d1399655</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1266,8 +1277,8 @@
         <v>78</v>
       </c>
       <c r="F22" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>4de1598a-4c3e-a524-9aa0-edfed57160f0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>99bd2471-faae-ca75-8fa4-46eb77783367</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1287,8 +1298,8 @@
         <v>75</v>
       </c>
       <c r="F23" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>797d829d-39a3-422b-5d29-6d4d1abf2631</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>648b83cc-c0b5-7ca6-2762-434d399a5a11</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1308,8 +1319,8 @@
         <v>72</v>
       </c>
       <c r="F24" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>9a1be614-6bf3-93b0-31d7-848c1b1ef7f1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8a6e61d8-8c0b-6b7d-f1fe-c591ef724047</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1329,8 +1340,8 @@
         <v>69</v>
       </c>
       <c r="F25" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>7d8a67c9-aa00-8dae-9577-358afdf53908</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>c1a4e921-38ab-9adb-e89a-b4a2266178fb</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1350,8 +1361,8 @@
         <v>66</v>
       </c>
       <c r="F26" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>045f5041-ff63-ff12-6ef8-49f0b590237e</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6cc4ccb2-7edb-9653-910e-604af301a1e2</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1371,8 +1382,8 @@
         <v>63</v>
       </c>
       <c r="F27" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>d55df54c-0d27-4c1b-8e12-a3e905ffa302</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8331e8c8-379d-7014-ea6c-ca6858c97eda</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1389,8 +1400,8 @@
         <v>60</v>
       </c>
       <c r="F28" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>54eb7e39-82f0-8734-2e45-5aaaf429cb0c</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>494a3680-4ade-7aef-4883-bafaa1d760a8</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1410,8 +1421,8 @@
         <v>57</v>
       </c>
       <c r="F29" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>1e2b4798-7084-9361-354c-41c4de067ff2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>bff36998-2d17-93e3-1be3-0c2b8d2b66ad</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1431,8 +1442,8 @@
         <v>54</v>
       </c>
       <c r="F30" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>363df330-174b-70b8-e7ff-2ad0d4f23312</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>c479864e-7517-abfb-b13f-5daf99333d97</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1449,8 +1460,8 @@
         <v>51</v>
       </c>
       <c r="F31" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>da9239c0-c758-37b6-8368-ca8cfead47e6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3500ec89-aecf-3149-a98b-87206cd1e497</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1470,8 +1481,8 @@
         <v>48</v>
       </c>
       <c r="F32" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>a8e05f26-6872-1b02-1914-389cd5cb5822</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>a852cae7-229d-eaac-f07b-2c6375cbe1ec</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1491,8 +1502,8 @@
         <v>46</v>
       </c>
       <c r="F33" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>c148f96a-b5fa-36df-1363-fb3d1e531413</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>be95a8c8-f7b7-ca9e-ce61-3796f84a8683</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1509,8 +1520,8 @@
         <v>44</v>
       </c>
       <c r="F34" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>74355efd-35f0-60b6-5310-c983bae418ae</v>
+        <f t="shared" ref="F34:F51" ca="1" si="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
+        <v>4f4f6ae6-71b1-2498-1463-3d9c78dc3354</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1527,8 +1538,8 @@
         <v>42</v>
       </c>
       <c r="F35" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>45c9cd50-e66b-4699-7907-d3972342c400</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>ab9711d9-1821-2676-fb02-86074529a2df</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1545,8 +1556,8 @@
         <v>39</v>
       </c>
       <c r="F36" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>6a06d04b-5d91-4442-7d92-0e9b48c35e04</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>b1738e21-54b8-90c9-abc4-bf74ab2e2895</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1566,8 +1577,8 @@
         <v>35</v>
       </c>
       <c r="F37" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>b106a02c-fd76-fcfb-c4fa-fb9d06df1dda</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>eae6d577-5c9d-fcd0-a488-b26d56650728</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1587,8 +1598,8 @@
         <v>32</v>
       </c>
       <c r="F38" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>8c2b6669-d8a4-99b8-981c-23655e1fe418</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>72a203c6-3f52-6e59-5b7f-e4f838360a9b</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1608,8 +1619,8 @@
         <v>29</v>
       </c>
       <c r="F39" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>bfe4e62e-7e24-6548-82c1-9918c3cf4c2f</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6b45e0f8-7c24-38b3-f256-5c85ac1f26b9</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1629,8 +1640,8 @@
         <v>26</v>
       </c>
       <c r="F40" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>38a57012-624f-0f24-5cd2-5d6e6c914974</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>272b521c-6ae6-7b3a-1158-9227c60f8309</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1650,8 +1661,8 @@
         <v>23</v>
       </c>
       <c r="F41" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>5d7bb214-694e-34a7-e0b5-2dbe26fdcbcd</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>07ffc0c1-0a08-752b-3640-1dd9c0992f89</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1671,8 +1682,8 @@
         <v>20</v>
       </c>
       <c r="F42" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>fbd9e229-a035-b11f-0fa9-b923f78fb3c9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>c73031f0-e816-a471-2923-a220e2c11fc6</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1689,8 +1700,8 @@
         <v>17</v>
       </c>
       <c r="F43" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>1c07eeee-33a1-b3ee-50fe-467f65c60b8b</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5154c54f-a60c-c0d2-7f29-e1a0c55a7f27</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1710,8 +1721,8 @@
         <v>14</v>
       </c>
       <c r="F44" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>fc31cce2-a0f0-5cf3-1074-7c7b3d5da355</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>714ae1a2-55dc-b2fb-1dbe-a89ed5fd4df2</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1731,8 +1742,8 @@
         <v>11</v>
       </c>
       <c r="F45" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>61f4b106-04b4-ad7f-3f3c-07828378517b</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>f9b1bd6c-133e-5512-2a2c-61cf310263c6</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1749,8 +1760,8 @@
         <v>9</v>
       </c>
       <c r="F46" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>70bb69d2-eabc-6480-694f-22542d0c99ac</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>090eaa9c-67e8-a559-3a83-0c3d1d3769d0</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1767,8 +1778,8 @@
         <v>6</v>
       </c>
       <c r="F47" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>d60ccd07-af61-de93-3516-5f8e61750b50</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>55985f38-de91-4ce9-bd64-a2d115088e1c</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1788,8 +1799,8 @@
         <v>3</v>
       </c>
       <c r="F48" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>4a47f3c8-84f0-56b3-72f2-3cf11e167e95</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7516c796-6eb0-6117-5084-10141c1a1dd3</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1809,8 +1820,8 @@
         <v>0</v>
       </c>
       <c r="F49" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>faa1ccb8-66bd-f7b3-1265-41aebf9668c6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0d040885-ac85-ccdc-0c94-6ce4c468beae</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1818,17 +1829,17 @@
         <v>40020</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" t="s">
         <v>145</v>
       </c>
-      <c r="D50" t="s">
-        <v>146</v>
-      </c>
       <c r="E50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F50" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>91740dbe-a970-e5b9-ab36-0fd69f0e84b0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>102222fd-0516-85a7-e99d-b905f0a806c0</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1836,17 +1847,83 @@
         <v>41253</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D51" t="s">
         <v>79</v>
       </c>
       <c r="E51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F51" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>b3a77f71-ba7c-7192-d725-878c47f82374</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>44202</v>
+      </c>
+      <c r="B52" s="1">
+        <v>44202</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" t="s">
+        <v>150</v>
+      </c>
+      <c r="F52" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>e4e0a206-02fd-6b61-5417-52b131990d34</v>
+        <v>ec6d145c-e49a-8c43-97e4-bb921675d1c8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>35065</v>
+      </c>
+      <c r="C53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53" t="s">
+        <v>153</v>
+      </c>
+      <c r="F53" t="str">
+        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
+        <v>cbfae1ef-d892-6367-9ec5-79c604388f51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>18264</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" t="str">
+        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
+        <v>ac0f725f-c7f9-a4e0-3e68-9acca5ff99ca</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>44322</v>
+      </c>
+      <c r="C55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" t="str">
+        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
+        <v>7f11cc5a-24fa-ca20-fe0c-26d11f4575c2</v>
       </c>
     </row>
   </sheetData>
